--- a/Data Sources/Subnational Consumption/HeatEndUseMultipliers2.xlsx
+++ b/Data Sources/Subnational Consumption/HeatEndUseMultipliers2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\Subnational Consumption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961B0EEF-E0BA-4286-82E3-C7AD9A234C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612E860D-E304-49B3-94FA-A978ABFB66AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{AED500BB-4C97-4F62-99B2-98118E243439}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Year</t>
   </si>
@@ -51,30 +51,12 @@
     <t>Coal - Commercial</t>
   </si>
   <si>
-    <t>Manufactured Fuels - Industry</t>
-  </si>
-  <si>
-    <t>Manufactured Fuels - Domestic</t>
-  </si>
-  <si>
     <t>Petroleum products - Industrial</t>
   </si>
   <si>
-    <t>Petroleum prodicts - Commercial</t>
-  </si>
-  <si>
-    <t>Petroleum Products - Public Sector</t>
-  </si>
-  <si>
     <t>Gas - Domestic</t>
   </si>
   <si>
-    <t>Bioenergy and Wastes - Domestic</t>
-  </si>
-  <si>
-    <t>Coal - Public</t>
-  </si>
-  <si>
     <t>Bioenergy &amp; Wastes - Industrial</t>
   </si>
   <si>
@@ -85,22 +67,40 @@
   </si>
   <si>
     <t>Gas - Commercial</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Coal - Public Sector</t>
+  </si>
+  <si>
+    <t>Manufactured fuels - Industrial</t>
+  </si>
+  <si>
+    <t>Manufactured fuels - Domestic</t>
+  </si>
+  <si>
+    <t>Petroleum products - Commercial</t>
+  </si>
+  <si>
+    <t>Petroleum products - Public Sector</t>
+  </si>
+  <si>
+    <t>Bioenergy &amp; wastes - Domestic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -441,31 +441,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD929EB-E039-4A4A-AADD-9257A5ACDD7D}">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F28CA19-189A-477A-8389-256F434ED2DE}">
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" customWidth="1"/>
-    <col min="5" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" customWidth="1"/>
-    <col min="10" max="10" width="20.36328125" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" customWidth="1"/>
-    <col min="13" max="14" width="20.08984375" customWidth="1"/>
-    <col min="15" max="15" width="12.6328125" customWidth="1"/>
-    <col min="16" max="17" width="17.7265625" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -473,342 +480,357 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
       </c>
       <c r="P1" t="s">
         <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>2018</v>
       </c>
-      <c r="C2">
-        <v>0.89407942657344885</v>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
       <c r="D2">
         <v>0.89407942657344885</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.89407942657344885</v>
       </c>
       <c r="F2">
-        <v>0.89407942657344885</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0.89407942657344885</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.89407942657344885</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>0.89289429669804954</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.96193325401004925</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>0.96193325401004925</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
       <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>0.88283556107173244</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.92343004803747553</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>0.83970677369163316</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>2017</v>
       </c>
-      <c r="C3">
-        <v>0.89427080771458167</v>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="D3">
         <v>0.89427080771458167</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.89427080771458167</v>
       </c>
       <c r="F3">
-        <v>0.89427080771458167</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0.89427080771458167</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.89427080771458167</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>0.89515966118641621</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.96195291256662641</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>0.96195291256662641</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>0.88404780580526365</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.92343004803747541</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>0.83970677369163327</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
-      <c r="C4">
-        <v>0.89545192136377871</v>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="D4">
         <v>0.89545192136377871</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.89545192136377871</v>
       </c>
       <c r="F4">
-        <v>0.89545192136377871</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0.89545192136377871</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.89545192136377871</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>0.89622569894592463</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.96196516492790407</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>0.96196516492790407</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>0.88505355124010676</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.92343004803747541</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
         <v>0.83970677369163327</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>2015</v>
       </c>
-      <c r="C5">
-        <v>0.89743630811284092</v>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0.89743630811284092</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.89743630811284092</v>
       </c>
       <c r="F5">
-        <v>0.89743630811284092</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0.89743630811284092</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.89743630811284092</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>0.8953512846057784</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.96195343554798407</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>0.96195343554798407</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>0.88579135684091515</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.92342971929739148</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>0.8397095388788427</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2014</v>
       </c>
-      <c r="C6">
-        <v>0.89748968636263826</v>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
       <c r="D6">
         <v>0.89748968636263826</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.89748968636263826</v>
       </c>
       <c r="F6">
-        <v>0.89748968636263826</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0.89748968636263826</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.89748968636263826</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>0.89289675058223361</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.98895313926611994</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>0.98895313926611994</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>0.88077668238115592</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.98077632793839431</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
       <c r="Q6">
         <v>1</v>
       </c>
@@ -818,56 +840,59 @@
       <c r="S6">
         <v>1</v>
       </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>0.89928620791308844</v>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7">
         <v>0.89928620791308844</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.89928620791308844</v>
       </c>
       <c r="F7">
-        <v>0.89928620791308844</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0.89928620791308844</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.89928620791308844</v>
       </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>0.89358428711105997</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.98934579832817471</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>0.98934579832817471</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
       <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>0.87998462452707316</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.98079268327792268</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
       <c r="Q7">
         <v>1</v>
       </c>
@@ -877,56 +902,59 @@
       <c r="S7">
         <v>1</v>
       </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>2012</v>
       </c>
-      <c r="C8">
-        <v>0.90159822570381853</v>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
       <c r="D8">
         <v>0.90159822570381853</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.90159822570381853</v>
       </c>
       <c r="F8">
-        <v>0.90159822570381853</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0.90159822570381853</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.90159822570381853</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>0.89056274538316127</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.98948552725784999</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>0.98948552725784999</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
       <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>0.88029223488495578</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.98080253955892482</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
       <c r="Q8">
         <v>1</v>
       </c>
@@ -936,56 +964,59 @@
       <c r="S8">
         <v>1</v>
       </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
-      <c r="C9">
-        <v>0.90084306014499127</v>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
       <c r="D9">
         <v>0.90084306014499127</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.90084306014499127</v>
       </c>
       <c r="F9">
-        <v>0.90084306014499127</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0.90084306014499127</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.90084306014499127</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>0.88541427044288989</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.98965210646790636</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>0.98965210646790636</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
       <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>0.88027693134458063</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.98080879209663108</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
       <c r="Q9">
         <v>1</v>
       </c>
@@ -995,56 +1026,59 @@
       <c r="S9">
         <v>1</v>
       </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
         <v>2010</v>
       </c>
-      <c r="C10">
-        <v>0.89875713655871381</v>
+      <c r="C10" t="s">
+        <v>15</v>
       </c>
       <c r="D10">
         <v>0.89875713655871381</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="F10">
-        <v>0.89875713655871381</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0.89875713655871381</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>0.87689948566134579</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.98950353409235192</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>0.98950353409235192</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
       <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>0.87913102122413767</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.98085085644930359</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
       <c r="Q10">
         <v>1</v>
       </c>
@@ -1054,56 +1088,59 @@
       <c r="S10">
         <v>1</v>
       </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11">
         <v>2009</v>
       </c>
-      <c r="C11">
-        <v>0.89875713655871381</v>
+      <c r="C11" t="s">
+        <v>15</v>
       </c>
       <c r="D11">
         <v>0.89875713655871381</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="F11">
-        <v>0.89875713655871381</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0.89875713655871381</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>0.87689948566134579</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.98950353409235192</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>0.98950353409235192</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
       <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>0.87913102122413767</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.98085085644930359</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
       <c r="Q11">
         <v>1</v>
       </c>
@@ -1113,56 +1150,59 @@
       <c r="S11">
         <v>1</v>
       </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12">
         <v>2008</v>
       </c>
-      <c r="C12">
-        <v>0.89875713655871381</v>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
       <c r="D12">
         <v>0.89875713655871381</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="F12">
-        <v>0.89875713655871381</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0.89875713655871381</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>0.87689948566134579</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.98950353409235192</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>0.98950353409235192</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
       <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>0.87913102122413767</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.98085085644930359</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
       <c r="Q12">
         <v>1</v>
       </c>
@@ -1172,56 +1212,59 @@
       <c r="S12">
         <v>1</v>
       </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13">
         <v>2007</v>
       </c>
-      <c r="C13">
-        <v>0.89875713655871381</v>
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
       <c r="D13">
         <v>0.89875713655871381</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="F13">
-        <v>0.89875713655871381</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0.89875713655871381</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>0.87689948566134579</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.98950353409235192</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>0.98950353409235192</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
       <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
         <v>0.87913102122413767</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.98085085644930359</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
       <c r="Q13">
         <v>1</v>
       </c>
@@ -1231,56 +1274,59 @@
       <c r="S13">
         <v>1</v>
       </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14">
         <v>2006</v>
       </c>
-      <c r="C14">
-        <v>0.89875713655871381</v>
+      <c r="C14" t="s">
+        <v>15</v>
       </c>
       <c r="D14">
         <v>0.89875713655871381</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="F14">
-        <v>0.89875713655871381</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0.89875713655871381</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>0.87689948566134579</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.98950353409235192</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>0.98950353409235192</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
       <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>0.87913102122413767</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.98085085644930359</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
       <c r="Q14">
         <v>1</v>
       </c>
@@ -1290,56 +1336,59 @@
       <c r="S14">
         <v>1</v>
       </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15">
         <v>2005</v>
       </c>
-      <c r="C15">
-        <v>0.89875713655871381</v>
+      <c r="C15" t="s">
+        <v>15</v>
       </c>
       <c r="D15">
         <v>0.89875713655871381</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="F15">
-        <v>0.89875713655871381</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0.89875713655871381</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.89875713655871381</v>
       </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>0.87689948566134579</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.98950353409235192</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
       <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>0.98950353409235192</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
       <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>0.87913102122413767</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.98085085644930359</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
       <c r="Q15">
         <v>1</v>
       </c>
@@ -1347,12 +1396,13 @@
         <v>1</v>
       </c>
       <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>